--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.677814327920283</v>
+        <v>0.6498683146729446</v>
       </c>
       <c r="D2">
-        <v>0.4979828177526859</v>
+        <v>0.5225057998191049</v>
       </c>
       <c r="E2">
         <v>0.6438282008097378</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4705174400090036</v>
+        <v>-0.3925152442352722</v>
       </c>
       <c r="D3">
-        <v>0.6380464918918578</v>
+        <v>0.6984546676101222</v>
       </c>
       <c r="E3">
         <v>0.6438282008097378</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1433163435608755</v>
+        <v>0.1505171351633422</v>
       </c>
       <c r="D4">
-        <v>0.8860575461470002</v>
+        <v>0.8817281538429809</v>
       </c>
       <c r="E4">
         <v>0.6438282008097378</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.346869766282357</v>
+        <v>2.678961337786918</v>
       </c>
       <c r="D5">
-        <v>0.01904752894318174</v>
+        <v>0.01371002736325333</v>
       </c>
       <c r="E5">
         <v>0.6438282008097378</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.166980903068163</v>
+        <v>-1.071356376449245</v>
       </c>
       <c r="D6">
-        <v>0.2433837938360457</v>
+        <v>0.29562219903482</v>
       </c>
       <c r="E6">
         <v>0.627227042371892</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.5575301109835705</v>
+        <v>-0.5505560020292669</v>
       </c>
       <c r="D7">
-        <v>0.5772396123233081</v>
+        <v>0.5874855913056884</v>
       </c>
       <c r="E7">
         <v>0.627227042371892</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.619594385418794</v>
+        <v>1.455511616841284</v>
       </c>
       <c r="D8">
-        <v>0.1055072332807538</v>
+        <v>0.1596500353693517</v>
       </c>
       <c r="E8">
         <v>0.627227042371892</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.6165763185514942</v>
+        <v>0.6233217515520759</v>
       </c>
       <c r="D9">
-        <v>0.5375978078651711</v>
+        <v>0.5394821841408546</v>
       </c>
       <c r="E9">
         <v>0.6550101068538808</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.722725350520878</v>
+        <v>2.10804248464454</v>
       </c>
       <c r="D10">
-        <v>0.006541582469520968</v>
+        <v>0.04664727541731994</v>
       </c>
       <c r="E10">
         <v>0.6550101068538808</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.109602450884096</v>
+        <v>1.926996697664108</v>
       </c>
       <c r="D11">
-        <v>0.03504027263763954</v>
+        <v>0.06699313630424397</v>
       </c>
       <c r="E11">
         <v>0.6402865398083217</v>
@@ -687,7 +687,7 @@
         <v>0.5961675761379603</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
